--- a/TA/STEP3④-5：スクレイピングTOOLと注意事項.xlsx
+++ b/TA/STEP3④-5：スクレイピングTOOLと注意事項.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e052cd390aedcac6/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouhei_shimakura\Documents\STEP3-TA\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{C242849E-7247-47B7-ABD4-7F27A92893D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1FFA0D5-8192-491A-B2F9-47AA6D9A8379}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA174CD9-CA73-4C16-8091-57AB30BCC618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="165" windowWidth="21285" windowHeight="15255" xr2:uid="{42D53BA2-0D57-4379-BB1D-BD4232723019}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42D53BA2-0D57-4379-BB1D-BD4232723019}"/>
   </bookViews>
   <sheets>
     <sheet name="スクレイピングTOOL" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>スクレイピング注意事項</t>
     <rPh sb="7" eb="11">
@@ -344,6 +342,10 @@
   </si>
   <si>
     <t>レスポンスを解析して特定のHtmlデータを取得する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・time</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -695,19 +697,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -730,17 +719,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -759,6 +737,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -768,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +764,99 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -784,18 +864,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -805,92 +873,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,13 +906,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>833436</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:colOff>834706</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>154928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1256,152 +1246,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC366ABC-994B-411F-A8CF-7338BA2C3B15}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="86.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.8984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="70.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="70.3984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" thickBot="1">
+    <row r="1" spans="1:6" ht="23.4" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="26"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1">
+      <c r="B9" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="24"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1425,13 +1424,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="60.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.8984375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1441,80 +1440,80 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="18" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:5">
@@ -1523,7 +1522,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1539,5 +1538,6 @@
     <hyperlink ref="E4" r:id="rId2" display="https://suumo.jp/robots.txt" xr:uid="{8792A228-9320-48C6-B6A7-E4E2BC635FDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/TA/STEP3④-5：スクレイピングTOOLと注意事項.xlsx
+++ b/TA/STEP3④-5：スクレイピングTOOLと注意事項.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouhei_shimakura\Documents\STEP3-TA\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA174CD9-CA73-4C16-8091-57AB30BCC618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD87D1B-37D1-4741-ABE3-3B4829AEA94D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42D53BA2-0D57-4379-BB1D-BD4232723019}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>スクレイピング注意事項</t>
     <rPh sb="7" eb="11">
@@ -346,6 +346,35 @@
   </si>
   <si>
     <t>・time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手先のサーバーに負荷をかけないよう時間差でのデータ取得を行う</t>
+    <rPh sb="0" eb="3">
+      <t>アイテサキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ジカンサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間をおいての制御</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -846,6 +875,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -872,15 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1249,7 +1278,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1286,10 +1315,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="24" t="s">
@@ -1301,8 +1330,8 @@
       <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="31"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="17"/>
       <c r="E4" s="5" t="s">
         <v>26</v>
@@ -1370,12 +1399,16 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="10"/>
     </row>
     <row r="11" spans="1:6">
@@ -1454,7 +1487,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1466,7 +1499,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="41.25" customHeight="1" thickBot="1">
-      <c r="B4" s="35"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1478,7 +1511,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1490,8 +1523,8 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="39" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1500,16 +1533,16 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="B7" s="30"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B8" s="35"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
